--- a/_resource/excel/1101-进入游戏.xlsx
+++ b/_resource/excel/1101-进入游戏.xlsx
@@ -17,11 +17,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>#enter</t>
   </si>
   <si>
+    <t>描述说明</t>
+  </si>
+  <si>
     <t>服务器变量id</t>
   </si>
   <si>
@@ -37,10 +40,13 @@
     <t>调用函数</t>
   </si>
   <si>
-    <t>NoteId(int)</t>
-  </si>
-  <si>
-    <t>ChannelId(int)</t>
+    <t>Description(string)</t>
+  </si>
+  <si>
+    <t>Id(int)</t>
+  </si>
+  <si>
+    <t>Channel(int)</t>
   </si>
   <si>
     <t>Service(int)</t>
@@ -50,6 +56,9 @@
   </si>
   <si>
     <t>LuaFunction(string)</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
   <si>
     <r>
@@ -83,28 +92,16 @@
   <si>
     <t>NewPlayerFunction</t>
   </si>
-  <si>
-    <t>./script/game/steam_activation_code.lua</t>
-  </si>
-  <si>
-    <t>GetSteamActivationCode</t>
-  </si>
-  <si>
-    <t>./script/game/report_invite.lua</t>
-  </si>
-  <si>
-    <t>ReportInvite</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -133,6 +130,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -142,7 +184,53 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,42 +244,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -200,16 +252,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,61 +269,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,187 +301,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,39 +506,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,6 +551,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -605,8 +602,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,10 +615,10 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,137 +627,137 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -770,16 +767,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -1202,44 +1196,46 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="16" style="5" customWidth="1"/>
-    <col min="3" max="3" width="31.75" style="5" customWidth="1"/>
-    <col min="4" max="4" width="43.875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="44.125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="39.875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="10.375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="17.125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="18.875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="17.125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="27.5" style="5" customWidth="1"/>
-    <col min="12" max="13" width="17.125" style="5" customWidth="1"/>
-    <col min="14" max="14" width="19.125" style="5" customWidth="1"/>
-    <col min="15" max="15" width="17.125" style="5" customWidth="1"/>
-    <col min="16" max="16" width="8.375" style="5" customWidth="1"/>
-    <col min="17" max="17" width="16.25" style="5" customWidth="1"/>
-    <col min="18" max="18" width="19.625" style="5" customWidth="1"/>
-    <col min="19" max="19" width="16" style="5" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="25.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16" style="4" customWidth="1"/>
+    <col min="4" max="4" width="31.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="43.875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="44.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="39.875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="17.125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="18.875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="17.125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="27.5" style="4" customWidth="1"/>
+    <col min="13" max="14" width="17.125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="19.125" style="4" customWidth="1"/>
+    <col min="16" max="16" width="17.125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="8.375" style="4" customWidth="1"/>
+    <col min="18" max="18" width="16.25" style="4" customWidth="1"/>
+    <col min="19" max="19" width="19.625" style="4" customWidth="1"/>
+    <col min="20" max="20" width="16" style="4" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="2:2">
-      <c r="B1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:2">
+      <c r="A1" s="4"/>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:13">
-      <c r="A2" s="2" t="s">
+    <row r="2" s="2" customFormat="1" spans="1:6">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1254,114 +1250,76 @@
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:13">
-      <c r="A3" s="3">
+    <row r="3" s="1" customFormat="1" spans="1:6">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="3">
+      <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
     </row>
-    <row r="4" s="4" customFormat="1" spans="1:13">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    <row r="4" s="3" customFormat="1" spans="1:14">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="5">
+    <row r="5" spans="1:6">
+      <c r="A5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="5">
+      <c r="C5" s="4">
         <v>0</v>
       </c>
-      <c r="C5" s="5">
+      <c r="D5" s="4">
         <v>0</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="5">
-        <v>0</v>
-      </c>
-      <c r="B6" s="5">
-        <v>3</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="5">
-        <v>0</v>
-      </c>
-      <c r="B7" s="5">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="F5" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
